--- a/MiniProgram_api_test/TestCase/F_code_update.xlsx
+++ b/MiniProgram_api_test/TestCase/F_code_update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Case_Name</t>
   </si>
@@ -113,6 +113,34 @@
   </si>
   <si>
     <t>{"tenantCode":"88000026","type":"1","openid":"2","code":"cfa27a"}</t>
+  </si>
+  <si>
+    <t>F码锁定已取消的订单后再去锁定别的订单</t>
+  </si>
+  <si>
+    <t>{
+    "tenantCode":"88000026",
+    "type": 0,
+    "orderNo": "118080215141157300052",
+    "code": "cfa27a"
+}</t>
+  </si>
+  <si>
+    <t>核销F码</t>
+  </si>
+  <si>
+    <t>{
+    "tenantCode":"88000026",
+    "type": 0,
+    "orderNo": "33333",
+    "code": "ec74d5"
+}</t>
+  </si>
+  <si>
+    <t>{"tenantCode":"88000026","type":"0","openid":"2","code":"ec74d5"}</t>
+  </si>
+  <si>
+    <t>{"tenantCode":"88000026","type":"1","openid":"2","code":"ec74d5"}</t>
   </si>
 </sst>
 </file>
@@ -126,7 +154,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +163,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -156,14 +280,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,120 +324,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,30 +525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,17 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +563,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -566,13 +596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,152 +630,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,13 +785,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1114,15 +1151,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -1130,7 +1168,7 @@
     <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:11">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1193,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1165,143 +1203,472 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2" ht="99" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3" ht="33" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:11">
-      <c r="A4" t="s">
+    <row r="4" ht="33" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="5" ht="99" spans="1:11">
+      <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="33" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="99" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:11">
-      <c r="A6" t="s">
+    <row r="9" ht="33" spans="1:11">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:11">
-      <c r="A7" t="s">
+    <row r="10" ht="33" spans="1:11">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="I10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="11" ht="99" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="33" spans="1:11">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:11">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:11">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:11">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:11">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:11">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:11">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:11">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1311,6 +1678,12 @@
     <hyperlink ref="B5" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B6" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
     <hyperlink ref="B7" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B9" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B10" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B12" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
+    <hyperlink ref="B13" r:id="rId1" display="http://we-sit.baozun.com" tooltip="http://we-sit.baozun.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
